--- a/biology/Botanique/Sétaire_verte/Sétaire_verte.xlsx
+++ b/biology/Botanique/Sétaire_verte/Sétaire_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9taire_verte</t>
+          <t>Sétaire_verte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Setaria viridis
 Setaria viridis, la Sétaire verte, est une plante herbacée de la famille des Poacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9taire_verte</t>
+          <t>Sétaire_verte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Setaria italica subsp. viridis (L.) Thell.
 Panicum viride L. Basionyme
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9taire_verte</t>
+          <t>Sétaire_verte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toute la France métropolitaine de 0 à 1 200 m d'altitude, occasionnel plus haut[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute la France métropolitaine de 0 à 1 200 m d'altitude, occasionnel plus haut.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9taire_verte</t>
+          <t>Sétaire_verte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Juillet, août.
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9taire_verte</t>
+          <t>Sétaire_verte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultures, friches.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S%C3%A9taire_verte</t>
+          <t>Sétaire_verte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,9 +664,11 @@
           <t>Sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (6 décembre 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (6 décembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Setaria viridis subsp. glareosa (Petrov) Peshkova
 Setaria viridis subsp. italica (L.) Briq.
 Setaria viridis subsp. minor (Thunb.) T. Koyama
